--- a/biology/Botanique/Discovery_(pomme)/Discovery_(pomme).xlsx
+++ b/biology/Botanique/Discovery_(pomme)/Discovery_(pomme).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Discovery est un cultivar de pommier domestique.
 </t>
@@ -511,7 +523,9 @@
           <t>Origine</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Cultivar obtenu dans l'Essex (Angleterre) vers 1949, distribué en 1964.
 </t>
@@ -542,9 +556,11 @@
           <t>Parenté</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Cultivar issu de Worcester Pearmain × Beauty of Bath[1].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Cultivar issu de Worcester Pearmain × Beauty of Bath.
 Descendants:
 Red Devil
 Mutants:
@@ -576,11 +592,13 @@
           <t>Pollinisation</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Groupe de floraison: D[2].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Groupe de floraison: D.
 Date de floraison: 1 jour avant la Golden Delicious.
-S-génotype : S10S24[3].
+S-génotype : S10S24.
 </t>
         </is>
       </c>
@@ -609,7 +627,9 @@
           <t>Culture</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">Maturité : en août, c'est une variété précoce.
 Sa faible durée de conservation nécessite une production sur son lieu de consommation, votre petit jardin familial. Vous la croquerez donc souvent les premiers beaux jours au jardin même.
